--- a/ONCHO/Impact Assessments/Nigeria/2024/odon/ng_oncho_stop_202403_2_part_odon.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2024/odon/ng_oncho_stop_202403_2_part_odon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\ogun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\odon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A5DB97-FC70-44E2-B976-BBC207F4F2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB49C71-0368-4051-BEBA-B32827134718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -273,10 +273,10 @@
     <t>community</t>
   </si>
   <si>
-    <t>ng_oncho_stop_202403_2_part_ogun</t>
-  </si>
-  <si>
-    <t>(2024 Mar) - 2. Participant Form Ogun State</t>
+    <t>ng_oncho_stop_202403_2_part_odon</t>
+  </si>
+  <si>
+    <t>(2024 Mar) - 5. Participant Form Odon State</t>
   </si>
 </sst>
 </file>
@@ -1101,9 +1101,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
